--- a/resorce.xlsx
+++ b/resorce.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\영2준\Documents\GitHub\SL-term-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\REX\Documents\GitHub\SL-term-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6197E792-0D09-4158-BB00-9AB15D0F7091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C2EF89A2-F97A-4A8E-BBAC-6FD7AA82CA58}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -51,7 +50,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -411,19 +410,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B3120AB-4D14-4E29-8BAB-DC556F4EB617}">
-  <dimension ref="A1:D29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>1390</v>
       </c>
@@ -432,8 +431,12 @@
         <v>1525</v>
       </c>
       <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E1" s="1">
+        <v>1580</v>
+      </c>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -447,7 +450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -461,7 +464,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -475,7 +478,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -489,7 +492,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -503,7 +506,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -517,7 +520,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -531,7 +534,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -545,7 +548,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -559,7 +562,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -573,7 +576,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -587,7 +590,7 @@
         <v>3396</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -601,7 +604,7 @@
         <v>3590</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -615,7 +618,7 @@
         <v>5112</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -629,7 +632,7 @@
         <v>5444</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -643,7 +646,7 @@
         <v>9841</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -657,7 +660,7 @@
         <v>10413</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -671,7 +674,7 @@
         <v>13289</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -685,7 +688,7 @@
         <v>14111</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -699,7 +702,7 @@
         <v>19221</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -713,7 +716,7 @@
         <v>20794</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -727,7 +730,7 @@
         <v>41742</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -741,7 +744,7 @@
         <v>45624</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -755,7 +758,7 @@
         <v>73556</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -769,7 +772,7 @@
         <v>82515</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -783,7 +786,7 @@
         <v>179903</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -797,17 +800,18 @@
         <v>205473</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B29" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
